--- a/biology/Botanique/Bikkia/Bikkia.xlsx
+++ b/biology/Botanique/Bikkia/Bikkia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bikkia est un genre de plantes de la famille des Rubiaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)                (17 janvier 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)                (17 janvier 2021) :
 Bikkia bridgeana F.Muell. (1884)
 Bikkia commerconiana K.Schum. (1891)
 Bikkia gaudichaudiana Brongn. (1866)
@@ -525,7 +539,7 @@
 Bikkia pancheri (Brongn.) Guillaumin (1909)
 Bikkia philippinensis Valeton (1923 publ. 1924)
 Bikkia tetrandra (L.f.) A.Rich. (1830)
-Selon The Plant List            (17 janvier 2021)[3] :
+Selon The Plant List            (17 janvier 2021) :
 Bikkia bridgeana F.Muell.
 Bikkia commerconiana K.Schum.
 Bikkia gaudichaudiana Brongn.
@@ -536,7 +550,7 @@
 Bikkia pancheri (Brongn.) Guillaumin
 Bikkia philippinensis Valeton
 Bikkia tetrandra (L.f.) A.Rich.
-Selon Tropicos                                           (17 janvier 2021)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (17 janvier 2021) (Attention liste brute contenant possiblement des synonymes) :
 Bikkia alyxioides S. Moore
 Bikkia artensis (Montrouz.) Guillaumin
 Bikkia bridgeana F. Muell.
